--- a/biology/Origine et évolution du vivant/Olfactores/Olfactores.xlsx
+++ b/biology/Origine et évolution du vivant/Olfactores/Olfactores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les olfactoriens (Olfactores) forment un clade d'animaux chordés caractérisé par le fait de disposer du sens de l'olfaction, ou odorat. Ce groupe réunit la totalité des tuniciers et des vertébrés.
 Ce clade admet pour groupe frère celui des céphalochordés. Il a été créé par Richard P.S. Jefferies (en) d’après la présence de potentiels appareils olfactifs homologues dans des fossiles (Cornutes et Mitrés, toutefois controversés) un temps proposés comme des précurseurs de vertébrés et tuniciers.
@@ -512,62 +524,238 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rassemblement de tuniciers et vertébrés dans un même clade ne paraît pas évident morphologiquement, ce qui explique que la classification classique ait plutôt rapproché les tuniciers des mollusques. Or, si on se met à comparer leurs larves (comme Darwin le fit il y a plus de 150 ans), apparaissent alors beaucoup de ressemblances structurelles, comme la queue postanale, la forme des larves ou encore la notochorde définissant les chordés, justifiant ainsi le rapprochement cladistique de ces sous-embranchements.
 La théorie de Richard P.S Jefferies dite des « calcichordés », stipulant que les chordés provenaient d’ancêtres qui disposaient un squelette externe riche en calcium, fit peu d’émules jusqu’à ce que les analyses moléculaires confirment la proximité phylogénétique des tuniciers et des vertébrés.
-Caractères généraux issus des Chordés
-Les Olfactoriens possèdent les cinq caractéristiques définissant les Chordés, à l'état larvaire pour les Ascidies et les Thaliacées et durant toute la vie chez les Larvacées et les Crâniés :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Olfactores</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olfactores</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractères généraux issus des Chordés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Olfactoriens possèdent les cinq caractéristiques définissant les Chordés, à l'état larvaire pour les Ascidies et les Thaliacées et durant toute la vie chez les Larvacées et les Crâniés :
 présence d'une notochorde  (structure mésodermique dorsale cylindrique allongée qui joue un rôle de soutien) ;
 tube nerveux dorsal, par rapport à l'intestin et à la chorde en forme de tube (Épineuriens (polyphylétiques))[Note 1] ;
 fentes pharyngiennes (Pharyngotrèmes – paraphylétiques, les fentes pharyngiennes ayant par la suite été perdues par les échinodermes)[Note 1] ;
 endostyle (repli qui recouvre la face ventrale du pharynx et qui achemine les particules alimentaires au tube digestif en sécrétant un mucus) ;
-queue postanale.
-Caractères propres
-Les Olfactoriens possèdent des caractéristiques non dérivés des Chordés, que ne possèdent donc pas les autres Chordés (Céphalochordés):
+queue postanale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olfactores</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olfactores</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractères propres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Olfactoriens possèdent des caractéristiques non dérivés des Chordés, que ne possèdent donc pas les autres Chordés (Céphalochordés):
 Sens de l'olfaction.
-Disparition partielle de la notochorde , excepté chez certains poissons (esturgeon et cœlacanthe) et chez la myxine.
-Évolution
-Ce clade a connu une très importante diversification depuis son apparition au Cambrien (vers - 500 millions d’années) : alors que les tuniciers et les myxines sont restés peu diversifiés et exclusivement marins, les vertébrés ont eu une évolution fulgurante et ont conquis tous les milieux de la planète, avec leur premiers pas sur terre au Dévonien supérieur, il y a environ 370 millions d’années. Aujourd’hui, avec les baleines, qui mesurent jusqu'à 33 mètres de long (baleine bleue), ils comprennent les animaux les plus lourds et des animaux parmi les plus grands que la Terre ait jamais portés.
+Disparition partielle de la notochorde , excepté chez certains poissons (esturgeon et cœlacanthe) et chez la myxine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olfactores</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olfactores</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce clade a connu une très importante diversification depuis son apparition au Cambrien (vers - 500 millions d’années) : alors que les tuniciers et les myxines sont restés peu diversifiés et exclusivement marins, les vertébrés ont eu une évolution fulgurante et ont conquis tous les milieux de la planète, avec leur premiers pas sur terre au Dévonien supérieur, il y a environ 370 millions d’années. Aujourd’hui, avec les baleines, qui mesurent jusqu'à 33 mètres de long (baleine bleue), ils comprennent les animaux les plus lourds et des animaux parmi les plus grands que la Terre ait jamais portés.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Olfactores</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olfactores</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Place des Olfactoriens parmi les animaux
-Description des sous-embranchements
-Les Olfactoriens sont constitués de deux sous-embranchements :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olfactores</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olfactores</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Description des sous-embranchements</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Olfactoriens sont constitués de deux sous-embranchements :
 Les Urochordés ou Tuniciers, qui ne possèdent les caractéristiques des Chordés qu'à l'état larvaire, à l'exception des Larvacées (ou Appendiculaires). Comme leur nom l'indique, les Tuniciers possèdent de plus une tunique, produite par l’épiderme puis secondairement colonisée par des cellules d’origine sanguine ou conjonctive, constituée d’eau, de protéines et d’un glucide, la tunicine.
-Selon l’hypothèse de Garstang[1], la larve devint au cours de l’évolution le stade dominant dans le cycle vital, et tous les Chordés descendants possèdent les caractéristiques de la larve des Urochordés (néoténie) : une chorde, des fentes pharyngiennes, une queue post-anale, et un tube nerveux dorsal.
-Les Vertébrés, qui possèdent une colonne vertébrale recouvrant la partie troncale du système nerveux central. À 18 jours, la notochorde  de l'embryon des vertébrés se métamérise pour former les anneaux de la colonne vertébrale. Les vertébrés possèdent généralement un squelette osseux ou cartilagineux et des yeux. Toutefois, les Myxines qui ne possèdent pas de colonne vertébrale et disposent de photorécepteurs à la place des yeux, sont désormais intégrées au clade des Vertébrés où elles forment le groupe frère des Hyperoartiens au sein des Agnathes[2] ou Cyclostomes.
-Phylogénie
-En classification classique, les Olfactoriens sont traditionnellement divisés en trois sous-embranchements :
+Selon l’hypothèse de Garstang, la larve devint au cours de l’évolution le stade dominant dans le cycle vital, et tous les Chordés descendants possèdent les caractéristiques de la larve des Urochordés (néoténie) : une chorde, des fentes pharyngiennes, une queue post-anale, et un tube nerveux dorsal.
+Les Vertébrés, qui possèdent une colonne vertébrale recouvrant la partie troncale du système nerveux central. À 18 jours, la notochorde  de l'embryon des vertébrés se métamérise pour former les anneaux de la colonne vertébrale. Les vertébrés possèdent généralement un squelette osseux ou cartilagineux et des yeux. Toutefois, les Myxines qui ne possèdent pas de colonne vertébrale et disposent de photorécepteurs à la place des yeux, sont désormais intégrées au clade des Vertébrés où elles forment le groupe frère des Hyperoartiens au sein des Agnathes ou Cyclostomes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olfactores</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olfactores</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En classification classique, les Olfactoriens sont traditionnellement divisés en trois sous-embranchements :
 non-classé Olfactores
 sous-embranchement Tunicata Lamarck, 1816
 non-classé Craniata Janvier, 1981
@@ -586,7 +774,7 @@
 non-classé Vertebrata
 non-classé Hyperoartia
 super-classe Gnathostomata
-Cavalier-Smith, quant à lui, divisa ce taxon en deux sous-embranchements et en deux infra-embranchements[2]:
+Cavalier-Smith, quant à lui, divisa ce taxon en deux sous-embranchements et en deux infra-embranchements:
 sous-embranchement Tunicata Lamarck, 1816
 sous-embranchement Vertebrata Lamarck, 1801
 infra-embranchement Agnatha Cope, 1889
